--- a/xxinidemo/cim.xlsx
+++ b/xxinidemo/cim.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>gpcmmt.p</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,6 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,6 +174,10 @@
     <t>2.将数据库标题改为 GZ SHOWA TEST date(最后tr日期)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>注意：请勿在正式库运行此程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -240,6 +245,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -326,6 +332,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -334,6 +341,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -342,6 +350,7 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -350,6 +359,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -365,12 +375,14 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -392,6 +404,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -406,6 +419,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -422,6 +436,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,6 +453,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -470,6 +486,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -484,6 +501,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -491,6 +509,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -517,6 +536,7 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -525,6 +545,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -532,6 +553,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2617,7 +2639,9 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2635,9 +2659,7 @@
       <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2655,7 +2677,9 @@
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2673,9 +2697,7 @@
       <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
@@ -2693,8 +2715,8 @@
       <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>20</v>
@@ -2713,8 +2735,8 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>27</v>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -2733,7 +2755,9 @@
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
